--- a/mySystem/mySystem/xls/PTV/7 SOP-MFG-418-R01A 瓶口焊接机运行记录.xlsx
+++ b/mySystem/mySystem/xls/PTV/7 SOP-MFG-418-R01A 瓶口焊接机运行记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="59">
   <si>
     <t>WELDING PRESSURE</t>
   </si>
@@ -627,6 +627,10 @@
     <t>备注：参数确认栏内符合划√,不符合填写实际数值。外观检查结果合格划√，不合格写数量，并备注中注明不良项。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>瓶口焊接机运行记录</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -635,7 +639,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -792,6 +796,22 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1398,7 +1418,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1774,6 +1794,42 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3524,8 +3580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3586,7 +3642,7 @@
     </row>
     <row r="2" spans="1:25" ht="39.75" customHeight="1">
       <c r="A2" s="98" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B2" s="98"/>
       <c r="C2" s="99"/>
@@ -3849,294 +3905,294 @@
       <c r="Y7" s="114"/>
     </row>
     <row r="8" spans="1:25" ht="21" customHeight="1">
-      <c r="A8" s="30">
+      <c r="A8" s="126">
         <v>1</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="34"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="129"/>
+      <c r="L8" s="130"/>
+      <c r="M8" s="128"/>
+      <c r="N8" s="129"/>
+      <c r="O8" s="129"/>
+      <c r="P8" s="129"/>
+      <c r="Q8" s="130"/>
+      <c r="R8" s="128"/>
+      <c r="S8" s="129"/>
+      <c r="T8" s="129"/>
+      <c r="U8" s="129"/>
+      <c r="V8" s="130"/>
+      <c r="W8" s="128"/>
+      <c r="X8" s="127"/>
+      <c r="Y8" s="131"/>
     </row>
     <row r="9" spans="1:25" ht="21" customHeight="1">
-      <c r="A9" s="35">
+      <c r="A9" s="132">
         <v>2</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="39"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="135"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="135"/>
+      <c r="O9" s="135"/>
+      <c r="P9" s="135"/>
+      <c r="Q9" s="136"/>
+      <c r="R9" s="134"/>
+      <c r="S9" s="135"/>
+      <c r="T9" s="135"/>
+      <c r="U9" s="135"/>
+      <c r="V9" s="136"/>
+      <c r="W9" s="134"/>
+      <c r="X9" s="133"/>
+      <c r="Y9" s="137"/>
     </row>
     <row r="10" spans="1:25" ht="21" customHeight="1">
-      <c r="A10" s="35">
+      <c r="A10" s="132">
         <v>3</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="39"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="135"/>
+      <c r="O10" s="135"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="136"/>
+      <c r="R10" s="134"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="135"/>
+      <c r="V10" s="136"/>
+      <c r="W10" s="134"/>
+      <c r="X10" s="133"/>
+      <c r="Y10" s="137"/>
     </row>
     <row r="11" spans="1:25" ht="21" customHeight="1">
-      <c r="A11" s="35">
+      <c r="A11" s="132">
         <v>4</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="39"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="135"/>
+      <c r="O11" s="135"/>
+      <c r="P11" s="135"/>
+      <c r="Q11" s="136"/>
+      <c r="R11" s="134"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="135"/>
+      <c r="U11" s="135"/>
+      <c r="V11" s="136"/>
+      <c r="W11" s="134"/>
+      <c r="X11" s="133"/>
+      <c r="Y11" s="137"/>
     </row>
     <row r="12" spans="1:25" ht="21" customHeight="1">
-      <c r="A12" s="35">
+      <c r="A12" s="132">
         <v>5</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="39"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="135"/>
+      <c r="O12" s="135"/>
+      <c r="P12" s="135"/>
+      <c r="Q12" s="136"/>
+      <c r="R12" s="134"/>
+      <c r="S12" s="135"/>
+      <c r="T12" s="135"/>
+      <c r="U12" s="135"/>
+      <c r="V12" s="136"/>
+      <c r="W12" s="134"/>
+      <c r="X12" s="133"/>
+      <c r="Y12" s="137"/>
     </row>
     <row r="13" spans="1:25" ht="21" customHeight="1">
-      <c r="A13" s="35">
+      <c r="A13" s="132">
         <v>6</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="39"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="135"/>
+      <c r="P13" s="135"/>
+      <c r="Q13" s="136"/>
+      <c r="R13" s="134"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="135"/>
+      <c r="U13" s="135"/>
+      <c r="V13" s="136"/>
+      <c r="W13" s="134"/>
+      <c r="X13" s="133"/>
+      <c r="Y13" s="137"/>
     </row>
     <row r="14" spans="1:25" ht="21" customHeight="1">
-      <c r="A14" s="35">
+      <c r="A14" s="132">
         <v>7</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="39"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="135"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="135"/>
+      <c r="O14" s="135"/>
+      <c r="P14" s="135"/>
+      <c r="Q14" s="136"/>
+      <c r="R14" s="134"/>
+      <c r="S14" s="135"/>
+      <c r="T14" s="135"/>
+      <c r="U14" s="135"/>
+      <c r="V14" s="136"/>
+      <c r="W14" s="134"/>
+      <c r="X14" s="133"/>
+      <c r="Y14" s="137"/>
     </row>
     <row r="15" spans="1:25" ht="21" customHeight="1">
-      <c r="A15" s="35">
+      <c r="A15" s="132">
         <v>8</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="39"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="135"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="135"/>
+      <c r="O15" s="135"/>
+      <c r="P15" s="135"/>
+      <c r="Q15" s="136"/>
+      <c r="R15" s="134"/>
+      <c r="S15" s="135"/>
+      <c r="T15" s="135"/>
+      <c r="U15" s="135"/>
+      <c r="V15" s="136"/>
+      <c r="W15" s="134"/>
+      <c r="X15" s="133"/>
+      <c r="Y15" s="137"/>
     </row>
     <row r="16" spans="1:25" ht="21" customHeight="1">
-      <c r="A16" s="35">
+      <c r="A16" s="132">
         <v>9</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="39"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="136"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="136"/>
+      <c r="R16" s="134"/>
+      <c r="S16" s="135"/>
+      <c r="T16" s="135"/>
+      <c r="U16" s="135"/>
+      <c r="V16" s="136"/>
+      <c r="W16" s="134"/>
+      <c r="X16" s="133"/>
+      <c r="Y16" s="137"/>
     </row>
     <row r="17" spans="1:25" ht="21" customHeight="1">
-      <c r="A17" s="35">
+      <c r="A17" s="132">
         <v>10</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="39"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="135"/>
+      <c r="O17" s="135"/>
+      <c r="P17" s="135"/>
+      <c r="Q17" s="136"/>
+      <c r="R17" s="134"/>
+      <c r="S17" s="135"/>
+      <c r="T17" s="135"/>
+      <c r="U17" s="135"/>
+      <c r="V17" s="136"/>
+      <c r="W17" s="134"/>
+      <c r="X17" s="133"/>
+      <c r="Y17" s="137"/>
     </row>
     <row r="18" spans="1:25" ht="27" customHeight="1">
       <c r="A18" s="106" t="s">
@@ -4192,6 +4248,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.22" top="0.71" bottom="0.44" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>